--- a/forms/app/hbc_patient_state.xlsx
+++ b/forms/app/hbc_patient_state.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3553,7 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C2" s="11" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 14-36</v>
+        <v>2020-12-31 12-29</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
